--- a/Code/Results/Cases/Case_5_251/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_251/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007277564520292</v>
+        <v>1.040555794334618</v>
       </c>
       <c r="D2">
-        <v>1.027105626040768</v>
+        <v>1.047096738552104</v>
       </c>
       <c r="E2">
-        <v>1.021831421784449</v>
+        <v>1.048319230427385</v>
       </c>
       <c r="F2">
-        <v>1.030766904003226</v>
+        <v>1.057694054655204</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045822446836613</v>
+        <v>1.035998129261775</v>
       </c>
       <c r="J2">
-        <v>1.029242762542602</v>
+        <v>1.045641764919755</v>
       </c>
       <c r="K2">
-        <v>1.038199823137912</v>
+        <v>1.049860330828642</v>
       </c>
       <c r="L2">
-        <v>1.032994763228858</v>
+        <v>1.051079407225533</v>
       </c>
       <c r="M2">
-        <v>1.041813622685955</v>
+        <v>1.060428323745304</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011952771258493</v>
+        <v>1.041556995282184</v>
       </c>
       <c r="D3">
-        <v>1.030628990530583</v>
+        <v>1.047870163236246</v>
       </c>
       <c r="E3">
-        <v>1.025693641686695</v>
+        <v>1.049196448301861</v>
       </c>
       <c r="F3">
-        <v>1.034869970305875</v>
+        <v>1.058624907041211</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04685080279005</v>
+        <v>1.036153347773119</v>
       </c>
       <c r="J3">
-        <v>1.032122811620707</v>
+        <v>1.046288373796804</v>
       </c>
       <c r="K3">
-        <v>1.040884411165102</v>
+        <v>1.050445630435419</v>
       </c>
       <c r="L3">
-        <v>1.036007992704824</v>
+        <v>1.051768477786647</v>
       </c>
       <c r="M3">
-        <v>1.045075307527117</v>
+        <v>1.061172765775723</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014917477244848</v>
+        <v>1.042205390041193</v>
       </c>
       <c r="D4">
-        <v>1.032865289435063</v>
+        <v>1.048370878913515</v>
       </c>
       <c r="E4">
-        <v>1.02814865079756</v>
+        <v>1.049764887251109</v>
       </c>
       <c r="F4">
-        <v>1.037477357891703</v>
+        <v>1.059228030536945</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047492144352565</v>
+        <v>1.036252507435273</v>
       </c>
       <c r="J4">
-        <v>1.033947139667664</v>
+        <v>1.046706721272316</v>
       </c>
       <c r="K4">
-        <v>1.042582602804807</v>
+        <v>1.05082395628745</v>
       </c>
       <c r="L4">
-        <v>1.03791881376159</v>
+        <v>1.052214533204774</v>
       </c>
       <c r="M4">
-        <v>1.047143564512675</v>
+        <v>1.061654639138752</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016149886131261</v>
+        <v>1.04247810627018</v>
       </c>
       <c r="D5">
-        <v>1.033795327417591</v>
+        <v>1.048581440270978</v>
       </c>
       <c r="E5">
-        <v>1.029170537327032</v>
+        <v>1.050004054122145</v>
       </c>
       <c r="F5">
-        <v>1.038562500276271</v>
+        <v>1.059481773805032</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047756117658267</v>
+        <v>1.036293887905323</v>
       </c>
       <c r="J5">
-        <v>1.03470498154063</v>
+        <v>1.046882581263618</v>
       </c>
       <c r="K5">
-        <v>1.043287472900875</v>
+        <v>1.050982907191633</v>
       </c>
       <c r="L5">
-        <v>1.038713095649195</v>
+        <v>1.052402097155591</v>
       </c>
       <c r="M5">
-        <v>1.048003256697267</v>
+        <v>1.061857258181566</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016356009461135</v>
+        <v>1.042523904188342</v>
       </c>
       <c r="D6">
-        <v>1.03395090165156</v>
+        <v>1.048616797957882</v>
       </c>
       <c r="E6">
-        <v>1.029341528620295</v>
+        <v>1.050044222698744</v>
       </c>
       <c r="F6">
-        <v>1.038744066075558</v>
+        <v>1.059524389528642</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047800112091888</v>
+        <v>1.036300817894674</v>
       </c>
       <c r="J6">
-        <v>1.034831700803122</v>
+        <v>1.046912108124407</v>
       </c>
       <c r="K6">
-        <v>1.043405300535448</v>
+        <v>1.051009590013652</v>
       </c>
       <c r="L6">
-        <v>1.038845938021849</v>
+        <v>1.052433592416829</v>
       </c>
       <c r="M6">
-        <v>1.048147036869232</v>
+        <v>1.061891281093097</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014933998907861</v>
+        <v>1.042209033574745</v>
       </c>
       <c r="D7">
-        <v>1.032877755922909</v>
+        <v>1.048373692208672</v>
       </c>
       <c r="E7">
-        <v>1.028162344907286</v>
+        <v>1.04976808224536</v>
       </c>
       <c r="F7">
-        <v>1.037491900355683</v>
+        <v>1.059231420321397</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047495693613842</v>
+        <v>1.036253061567139</v>
       </c>
       <c r="J7">
-        <v>1.033957301389496</v>
+        <v>1.046709071175476</v>
       </c>
       <c r="K7">
-        <v>1.042592056527856</v>
+        <v>1.050826080580742</v>
       </c>
       <c r="L7">
-        <v>1.037929462085305</v>
+        <v>1.052217039278698</v>
       </c>
       <c r="M7">
-        <v>1.047155089872064</v>
+        <v>1.061657346390589</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008870415017004</v>
+        <v>1.040894040359946</v>
       </c>
       <c r="D8">
-        <v>1.028305582125374</v>
+        <v>1.047358066789423</v>
       </c>
       <c r="E8">
-        <v>1.023146031448031</v>
+        <v>1.048615519708759</v>
       </c>
       <c r="F8">
-        <v>1.032163642104384</v>
+        <v>1.058008474192384</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046175041227971</v>
+        <v>1.036050850206405</v>
       </c>
       <c r="J8">
-        <v>1.030224397564709</v>
+        <v>1.04586029957624</v>
       </c>
       <c r="K8">
-        <v>1.039115315075324</v>
+        <v>1.050058218225935</v>
       </c>
       <c r="L8">
-        <v>1.034021343238005</v>
+        <v>1.051312243831235</v>
       </c>
       <c r="M8">
-        <v>1.042924872538854</v>
+        <v>1.060679875627089</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9976976673309568</v>
+        <v>1.038581107598058</v>
       </c>
       <c r="D9">
-        <v>1.019899851497925</v>
+        <v>1.045570440869253</v>
       </c>
       <c r="E9">
-        <v>1.013951790301109</v>
+        <v>1.046590895187545</v>
       </c>
       <c r="F9">
-        <v>1.022391963245118</v>
+        <v>1.05585966999995</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04365795434562</v>
+        <v>1.035684769595195</v>
       </c>
       <c r="J9">
-        <v>1.023331989682388</v>
+        <v>1.044364299665574</v>
       </c>
       <c r="K9">
-        <v>1.032678112144038</v>
+        <v>1.048702111481478</v>
       </c>
       <c r="L9">
-        <v>1.026822493493208</v>
+        <v>1.04971930680116</v>
       </c>
       <c r="M9">
-        <v>1.035131900392256</v>
+        <v>1.058958795487697</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9898840892550538</v>
+        <v>1.037042057483732</v>
       </c>
       <c r="D10">
-        <v>1.01403852552796</v>
+        <v>1.044380136999011</v>
       </c>
       <c r="E10">
-        <v>1.007558386853642</v>
+        <v>1.045245480319906</v>
       </c>
       <c r="F10">
-        <v>1.015593144913382</v>
+        <v>1.054431368238821</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041843918270689</v>
+        <v>1.035434185101928</v>
       </c>
       <c r="J10">
-        <v>1.018504890525319</v>
+        <v>1.043366780280379</v>
       </c>
       <c r="K10">
-        <v>1.028158853273504</v>
+        <v>1.04779605912055</v>
       </c>
       <c r="L10">
-        <v>1.02179250025579</v>
+        <v>1.048658367880479</v>
       </c>
       <c r="M10">
-        <v>1.029686454361464</v>
+        <v>1.057812380908639</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9864051506998586</v>
+        <v>1.036376329879835</v>
       </c>
       <c r="D11">
-        <v>1.011433909079926</v>
+        <v>1.043865081619201</v>
       </c>
       <c r="E11">
-        <v>1.004721264506081</v>
+        <v>1.044663944218564</v>
       </c>
       <c r="F11">
-        <v>1.012575187596409</v>
+        <v>1.053813918111905</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041024160014208</v>
+        <v>1.035324136490078</v>
       </c>
       <c r="J11">
-        <v>1.016354635491431</v>
+        <v>1.042934810156773</v>
       </c>
       <c r="K11">
-        <v>1.026143372589934</v>
+        <v>1.047403270820958</v>
       </c>
       <c r="L11">
-        <v>1.019554690569126</v>
+        <v>1.048199223480448</v>
       </c>
       <c r="M11">
-        <v>1.027263787883398</v>
+        <v>1.057316214899728</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9850977258958048</v>
+        <v>1.03612915352235</v>
       </c>
       <c r="D12">
-        <v>1.010455922220999</v>
+        <v>1.043673821584395</v>
       </c>
       <c r="E12">
-        <v>1.003656542832358</v>
+        <v>1.044448092875635</v>
       </c>
       <c r="F12">
-        <v>1.011442461532155</v>
+        <v>1.053584723232797</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040714331692227</v>
+        <v>1.035283028058852</v>
       </c>
       <c r="J12">
-        <v>1.015546447015473</v>
+        <v>1.042774352404567</v>
       </c>
       <c r="K12">
-        <v>1.02538550791913</v>
+        <v>1.047257303352428</v>
       </c>
       <c r="L12">
-        <v>1.018714022948653</v>
+        <v>1.048028715184055</v>
       </c>
       <c r="M12">
-        <v>1.026353677039006</v>
+        <v>1.057131953726951</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9853788743848432</v>
+        <v>1.036182168949806</v>
       </c>
       <c r="D13">
-        <v>1.010666188127935</v>
+        <v>1.043714845025951</v>
       </c>
       <c r="E13">
-        <v>1.003885431389975</v>
+        <v>1.044494386594967</v>
       </c>
       <c r="F13">
-        <v>1.011685975682262</v>
+        <v>1.053633879341971</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040781035391068</v>
+        <v>1.035291856424111</v>
       </c>
       <c r="J13">
-        <v>1.015720243284752</v>
+        <v>1.042808771341458</v>
       </c>
       <c r="K13">
-        <v>1.025548496991062</v>
+        <v>1.047288616950105</v>
       </c>
       <c r="L13">
-        <v>1.018894784217639</v>
+        <v>1.048065288040607</v>
       </c>
       <c r="M13">
-        <v>1.026549369937545</v>
+        <v>1.057171476683828</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9862973934721757</v>
+        <v>1.036355896069064</v>
       </c>
       <c r="D14">
-        <v>1.011353285964054</v>
+        <v>1.043849270886602</v>
       </c>
       <c r="E14">
-        <v>1.004633479775262</v>
+        <v>1.044646098668355</v>
       </c>
       <c r="F14">
-        <v>1.01248179885931</v>
+        <v>1.053794969651256</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040998659428556</v>
+        <v>1.035320743173649</v>
       </c>
       <c r="J14">
-        <v>1.016288026707687</v>
+        <v>1.04292154676227</v>
       </c>
       <c r="K14">
-        <v>1.026080917984472</v>
+        <v>1.047391206494409</v>
       </c>
       <c r="L14">
-        <v>1.01948539619501</v>
+        <v>1.048185128423128</v>
       </c>
       <c r="M14">
-        <v>1.027188769407455</v>
+        <v>1.057300983053314</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9868612845146315</v>
+        <v>1.036462948950304</v>
       </c>
       <c r="D15">
-        <v>1.01177522035761</v>
+        <v>1.043932102351351</v>
       </c>
       <c r="E15">
-        <v>1.005092916859913</v>
+        <v>1.044739594331464</v>
       </c>
       <c r="F15">
-        <v>1.012970559789591</v>
+        <v>1.053894243097149</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041132032270502</v>
+        <v>1.03533851059465</v>
       </c>
       <c r="J15">
-        <v>1.01663658524954</v>
+        <v>1.042991030808273</v>
       </c>
       <c r="K15">
-        <v>1.026407724632772</v>
+        <v>1.04745440626269</v>
       </c>
       <c r="L15">
-        <v>1.01984802572913</v>
+        <v>1.048258971151657</v>
       </c>
       <c r="M15">
-        <v>1.027581354236724</v>
+        <v>1.057380781132962</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9901128912581516</v>
+        <v>1.037086254252652</v>
       </c>
       <c r="D16">
-        <v>1.014209939169057</v>
+        <v>1.04441432709647</v>
       </c>
       <c r="E16">
-        <v>1.007745182078701</v>
+        <v>1.045284096915101</v>
       </c>
       <c r="F16">
-        <v>1.015791826816736</v>
+        <v>1.05447236784021</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041897585414252</v>
+        <v>1.035441456178543</v>
       </c>
       <c r="J16">
-        <v>1.018646291293076</v>
+        <v>1.043395447993409</v>
       </c>
       <c r="K16">
-        <v>1.028291344039166</v>
+        <v>1.047822117541242</v>
       </c>
       <c r="L16">
-        <v>1.021939717838448</v>
+        <v>1.048688845112143</v>
       </c>
       <c r="M16">
-        <v>1.029845832901568</v>
+        <v>1.057845314939698</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9921263750579381</v>
+        <v>1.037477422735617</v>
       </c>
       <c r="D17">
-        <v>1.015718989676975</v>
+        <v>1.044716909627804</v>
       </c>
       <c r="E17">
-        <v>1.00939009085398</v>
+        <v>1.045625927591253</v>
       </c>
       <c r="F17">
-        <v>1.017541303025013</v>
+        <v>1.054835282568614</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042368495270113</v>
+        <v>1.035505618218172</v>
       </c>
       <c r="J17">
-        <v>1.01989052413883</v>
+        <v>1.043649118723253</v>
       </c>
       <c r="K17">
-        <v>1.029456909367383</v>
+        <v>1.04805265018713</v>
       </c>
       <c r="L17">
-        <v>1.023235456845443</v>
+        <v>1.048958561062506</v>
       </c>
       <c r="M17">
-        <v>1.03124860460394</v>
+        <v>1.058136769475464</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9932916403185386</v>
+        <v>1.037705651344661</v>
       </c>
       <c r="D18">
-        <v>1.016592801092207</v>
+        <v>1.044893434974386</v>
       </c>
       <c r="E18">
-        <v>1.010342946105063</v>
+        <v>1.045825411656418</v>
       </c>
       <c r="F18">
-        <v>1.018554643336714</v>
+        <v>1.055047062338043</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042639875761304</v>
+        <v>1.035542893857263</v>
       </c>
       <c r="J18">
-        <v>1.020610499097941</v>
+        <v>1.043797076879283</v>
       </c>
       <c r="K18">
-        <v>1.030131138547334</v>
+        <v>1.048187071372888</v>
       </c>
       <c r="L18">
-        <v>1.023985503566184</v>
+        <v>1.049115905789424</v>
       </c>
       <c r="M18">
-        <v>1.03206060520578</v>
+        <v>1.058306792970869</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9936874351731435</v>
+        <v>1.037783482687455</v>
       </c>
       <c r="D19">
-        <v>1.016889678809545</v>
+        <v>1.044953631296755</v>
       </c>
       <c r="E19">
-        <v>1.010666743393765</v>
+        <v>1.045893447495361</v>
       </c>
       <c r="F19">
-        <v>1.018898979577735</v>
+        <v>1.055119290308234</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042731856314308</v>
+        <v>1.035555578600735</v>
       </c>
       <c r="J19">
-        <v>1.020855027567078</v>
+        <v>1.043847526135636</v>
       </c>
       <c r="K19">
-        <v>1.030360091391177</v>
+        <v>1.048232897928522</v>
       </c>
       <c r="L19">
-        <v>1.024240290740839</v>
+        <v>1.049169560313229</v>
       </c>
       <c r="M19">
-        <v>1.03233643721723</v>
+        <v>1.058364770457327</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9919113011572264</v>
+        <v>1.037435447160507</v>
       </c>
       <c r="D20">
-        <v>1.015557747570394</v>
+        <v>1.044684441852002</v>
       </c>
       <c r="E20">
-        <v>1.009214293507738</v>
+        <v>1.045589242041043</v>
       </c>
       <c r="F20">
-        <v>1.0173543393401</v>
+        <v>1.054796335133186</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042318313033867</v>
+        <v>1.035498749646175</v>
       </c>
       <c r="J20">
-        <v>1.019757629256824</v>
+        <v>1.043621902630111</v>
       </c>
       <c r="K20">
-        <v>1.029332440036734</v>
+        <v>1.048027920822896</v>
       </c>
       <c r="L20">
-        <v>1.023097032849431</v>
+        <v>1.048929620606764</v>
       </c>
       <c r="M20">
-        <v>1.031098746532739</v>
+        <v>1.058105496775853</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.986027338822662</v>
+        <v>1.036304734871964</v>
       </c>
       <c r="D21">
-        <v>1.011151247323694</v>
+        <v>1.043809684307356</v>
       </c>
       <c r="E21">
-        <v>1.004413503435867</v>
+        <v>1.04460141889887</v>
       </c>
       <c r="F21">
-        <v>1.012247777396752</v>
+        <v>1.053747528320331</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04093472335915</v>
+        <v>1.035312243131987</v>
       </c>
       <c r="J21">
-        <v>1.01612109441532</v>
+        <v>1.042888337337843</v>
       </c>
       <c r="K21">
-        <v>1.025924391454913</v>
+        <v>1.047360998311253</v>
       </c>
       <c r="L21">
-        <v>1.01931174030702</v>
+        <v>1.048149837350428</v>
       </c>
       <c r="M21">
-        <v>1.027000768608509</v>
+        <v>1.057262845626181</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9822395065545015</v>
+        <v>1.03559441620908</v>
       </c>
       <c r="D22">
-        <v>1.008319584717381</v>
+        <v>1.043260005274548</v>
       </c>
       <c r="E22">
-        <v>1.001331754415453</v>
+        <v>1.043981244565766</v>
       </c>
       <c r="F22">
-        <v>1.008968929130889</v>
+        <v>1.053088991096058</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040033845711114</v>
+        <v>1.035193640065215</v>
       </c>
       <c r="J22">
-        <v>1.013779513985123</v>
+        <v>1.042427088284076</v>
       </c>
       <c r="K22">
-        <v>1.023728011237718</v>
+        <v>1.046941282359052</v>
       </c>
       <c r="L22">
-        <v>1.016876875075709</v>
+        <v>1.047659779174776</v>
       </c>
       <c r="M22">
-        <v>1.024364779333489</v>
+        <v>1.056733251852372</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9842561752570982</v>
+        <v>1.035970911998998</v>
       </c>
       <c r="D23">
-        <v>1.009826674641626</v>
+        <v>1.043551370174906</v>
       </c>
       <c r="E23">
-        <v>1.002971645764943</v>
+        <v>1.044309924124005</v>
       </c>
       <c r="F23">
-        <v>1.010713780100372</v>
+        <v>1.053438009429338</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040514417895266</v>
+        <v>1.035256640560336</v>
       </c>
       <c r="J23">
-        <v>1.015026219594418</v>
+        <v>1.042671607454195</v>
       </c>
       <c r="K23">
-        <v>1.024897582920327</v>
+        <v>1.04716381887817</v>
       </c>
       <c r="L23">
-        <v>1.018173010286191</v>
+        <v>1.047919546879043</v>
       </c>
       <c r="M23">
-        <v>1.025767975030116</v>
+        <v>1.057013978851475</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9920085120597242</v>
+        <v>1.037454413910138</v>
       </c>
       <c r="D24">
-        <v>1.015630625654972</v>
+        <v>1.044699112537156</v>
       </c>
       <c r="E24">
-        <v>1.009293749092679</v>
+        <v>1.045605818353145</v>
       </c>
       <c r="F24">
-        <v>1.017438842077812</v>
+        <v>1.054813933500862</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042340998389996</v>
+        <v>1.035501853718606</v>
       </c>
       <c r="J24">
-        <v>1.019817696515754</v>
+        <v>1.043634200422551</v>
       </c>
       <c r="K24">
-        <v>1.029388699723097</v>
+        <v>1.048039095096028</v>
       </c>
       <c r="L24">
-        <v>1.023159598386969</v>
+        <v>1.048942697478974</v>
       </c>
       <c r="M24">
-        <v>1.031166480106726</v>
+        <v>1.058119627491718</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000647575203971</v>
+        <v>1.039178547463047</v>
       </c>
       <c r="D25">
-        <v>1.022116557031431</v>
+        <v>1.046032335727099</v>
       </c>
       <c r="E25">
-        <v>1.016373284353623</v>
+        <v>1.047113550503223</v>
       </c>
       <c r="F25">
-        <v>1.024966205677636</v>
+        <v>1.056414446708347</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044332008399615</v>
+        <v>1.035780563514513</v>
       </c>
       <c r="J25">
-        <v>1.025153165496637</v>
+        <v>1.044751088203617</v>
       </c>
       <c r="K25">
-        <v>1.034380976176077</v>
+        <v>1.049053051137499</v>
       </c>
       <c r="L25">
-        <v>1.028722634138443</v>
+        <v>1.050130943898067</v>
       </c>
       <c r="M25">
-        <v>1.037188932844998</v>
+        <v>1.059403569418626</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_251/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_251/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040555794334618</v>
+        <v>1.007277564520292</v>
       </c>
       <c r="D2">
-        <v>1.047096738552104</v>
+        <v>1.027105626040768</v>
       </c>
       <c r="E2">
-        <v>1.048319230427385</v>
+        <v>1.021831421784449</v>
       </c>
       <c r="F2">
-        <v>1.057694054655204</v>
+        <v>1.030766904003226</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035998129261775</v>
+        <v>1.045822446836613</v>
       </c>
       <c r="J2">
-        <v>1.045641764919755</v>
+        <v>1.029242762542602</v>
       </c>
       <c r="K2">
-        <v>1.049860330828642</v>
+        <v>1.038199823137912</v>
       </c>
       <c r="L2">
-        <v>1.051079407225533</v>
+        <v>1.032994763228858</v>
       </c>
       <c r="M2">
-        <v>1.060428323745304</v>
+        <v>1.041813622685955</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041556995282184</v>
+        <v>1.011952771258494</v>
       </c>
       <c r="D3">
-        <v>1.047870163236246</v>
+        <v>1.030628990530583</v>
       </c>
       <c r="E3">
-        <v>1.049196448301861</v>
+        <v>1.025693641686696</v>
       </c>
       <c r="F3">
-        <v>1.058624907041211</v>
+        <v>1.034869970305875</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036153347773119</v>
+        <v>1.04685080279005</v>
       </c>
       <c r="J3">
-        <v>1.046288373796804</v>
+        <v>1.032122811620708</v>
       </c>
       <c r="K3">
-        <v>1.050445630435419</v>
+        <v>1.040884411165102</v>
       </c>
       <c r="L3">
-        <v>1.051768477786647</v>
+        <v>1.036007992704824</v>
       </c>
       <c r="M3">
-        <v>1.061172765775723</v>
+        <v>1.045075307527117</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042205390041193</v>
+        <v>1.014917477244849</v>
       </c>
       <c r="D4">
-        <v>1.048370878913515</v>
+        <v>1.032865289435063</v>
       </c>
       <c r="E4">
-        <v>1.049764887251109</v>
+        <v>1.02814865079756</v>
       </c>
       <c r="F4">
-        <v>1.059228030536945</v>
+        <v>1.037477357891703</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036252507435273</v>
+        <v>1.047492144352565</v>
       </c>
       <c r="J4">
-        <v>1.046706721272316</v>
+        <v>1.033947139667664</v>
       </c>
       <c r="K4">
-        <v>1.05082395628745</v>
+        <v>1.042582602804807</v>
       </c>
       <c r="L4">
-        <v>1.052214533204774</v>
+        <v>1.03791881376159</v>
       </c>
       <c r="M4">
-        <v>1.061654639138752</v>
+        <v>1.047143564512675</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04247810627018</v>
+        <v>1.016149886131261</v>
       </c>
       <c r="D5">
-        <v>1.048581440270978</v>
+        <v>1.033795327417592</v>
       </c>
       <c r="E5">
-        <v>1.050004054122145</v>
+        <v>1.029170537327033</v>
       </c>
       <c r="F5">
-        <v>1.059481773805032</v>
+        <v>1.038562500276271</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036293887905323</v>
+        <v>1.047756117658267</v>
       </c>
       <c r="J5">
-        <v>1.046882581263618</v>
+        <v>1.034704981540631</v>
       </c>
       <c r="K5">
-        <v>1.050982907191633</v>
+        <v>1.043287472900876</v>
       </c>
       <c r="L5">
-        <v>1.052402097155591</v>
+        <v>1.038713095649196</v>
       </c>
       <c r="M5">
-        <v>1.061857258181566</v>
+        <v>1.048003256697268</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042523904188342</v>
+        <v>1.016356009461135</v>
       </c>
       <c r="D6">
-        <v>1.048616797957882</v>
+        <v>1.03395090165156</v>
       </c>
       <c r="E6">
-        <v>1.050044222698744</v>
+        <v>1.029341528620295</v>
       </c>
       <c r="F6">
-        <v>1.059524389528642</v>
+        <v>1.038744066075558</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036300817894674</v>
+        <v>1.047800112091888</v>
       </c>
       <c r="J6">
-        <v>1.046912108124407</v>
+        <v>1.034831700803122</v>
       </c>
       <c r="K6">
-        <v>1.051009590013652</v>
+        <v>1.043405300535448</v>
       </c>
       <c r="L6">
-        <v>1.052433592416829</v>
+        <v>1.038845938021849</v>
       </c>
       <c r="M6">
-        <v>1.061891281093097</v>
+        <v>1.048147036869232</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042209033574745</v>
+        <v>1.014933998907863</v>
       </c>
       <c r="D7">
-        <v>1.048373692208672</v>
+        <v>1.032877755922911</v>
       </c>
       <c r="E7">
-        <v>1.04976808224536</v>
+        <v>1.028162344907288</v>
       </c>
       <c r="F7">
-        <v>1.059231420321397</v>
+        <v>1.037491900355685</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036253061567139</v>
+        <v>1.047495693613843</v>
       </c>
       <c r="J7">
-        <v>1.046709071175476</v>
+        <v>1.033957301389498</v>
       </c>
       <c r="K7">
-        <v>1.050826080580742</v>
+        <v>1.042592056527857</v>
       </c>
       <c r="L7">
-        <v>1.052217039278698</v>
+        <v>1.037929462085306</v>
       </c>
       <c r="M7">
-        <v>1.061657346390589</v>
+        <v>1.047155089872065</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040894040359946</v>
+        <v>1.008870415017005</v>
       </c>
       <c r="D8">
-        <v>1.047358066789423</v>
+        <v>1.028305582125374</v>
       </c>
       <c r="E8">
-        <v>1.048615519708759</v>
+        <v>1.023146031448031</v>
       </c>
       <c r="F8">
-        <v>1.058008474192384</v>
+        <v>1.032163642104384</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036050850206405</v>
+        <v>1.046175041227971</v>
       </c>
       <c r="J8">
-        <v>1.04586029957624</v>
+        <v>1.03022439756471</v>
       </c>
       <c r="K8">
-        <v>1.050058218225935</v>
+        <v>1.039115315075324</v>
       </c>
       <c r="L8">
-        <v>1.051312243831235</v>
+        <v>1.034021343238006</v>
       </c>
       <c r="M8">
-        <v>1.060679875627089</v>
+        <v>1.042924872538854</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038581107598058</v>
+        <v>0.997697667330957</v>
       </c>
       <c r="D9">
-        <v>1.045570440869253</v>
+        <v>1.019899851497925</v>
       </c>
       <c r="E9">
-        <v>1.046590895187545</v>
+        <v>1.013951790301109</v>
       </c>
       <c r="F9">
-        <v>1.05585966999995</v>
+        <v>1.022391963245118</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035684769595195</v>
+        <v>1.043657954345619</v>
       </c>
       <c r="J9">
-        <v>1.044364299665574</v>
+        <v>1.023331989682389</v>
       </c>
       <c r="K9">
-        <v>1.048702111481478</v>
+        <v>1.032678112144038</v>
       </c>
       <c r="L9">
-        <v>1.04971930680116</v>
+        <v>1.026822493493208</v>
       </c>
       <c r="M9">
-        <v>1.058958795487697</v>
+        <v>1.035131900392256</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037042057483732</v>
+        <v>0.9898840892550534</v>
       </c>
       <c r="D10">
-        <v>1.044380136999011</v>
+        <v>1.014038525527959</v>
       </c>
       <c r="E10">
-        <v>1.045245480319906</v>
+        <v>1.007558386853642</v>
       </c>
       <c r="F10">
-        <v>1.054431368238821</v>
+        <v>1.015593144913382</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035434185101928</v>
+        <v>1.041843918270689</v>
       </c>
       <c r="J10">
-        <v>1.043366780280379</v>
+        <v>1.018504890525318</v>
       </c>
       <c r="K10">
-        <v>1.04779605912055</v>
+        <v>1.028158853273504</v>
       </c>
       <c r="L10">
-        <v>1.048658367880479</v>
+        <v>1.02179250025579</v>
       </c>
       <c r="M10">
-        <v>1.057812380908639</v>
+        <v>1.029686454361463</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036376329879835</v>
+        <v>0.9864051506998588</v>
       </c>
       <c r="D11">
-        <v>1.043865081619201</v>
+        <v>1.011433909079926</v>
       </c>
       <c r="E11">
-        <v>1.044663944218564</v>
+        <v>1.004721264506081</v>
       </c>
       <c r="F11">
-        <v>1.053813918111905</v>
+        <v>1.012575187596409</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035324136490078</v>
+        <v>1.041024160014208</v>
       </c>
       <c r="J11">
-        <v>1.042934810156773</v>
+        <v>1.016354635491431</v>
       </c>
       <c r="K11">
-        <v>1.047403270820958</v>
+        <v>1.026143372589934</v>
       </c>
       <c r="L11">
-        <v>1.048199223480448</v>
+        <v>1.019554690569126</v>
       </c>
       <c r="M11">
-        <v>1.057316214899728</v>
+        <v>1.027263787883398</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03612915352235</v>
+        <v>0.9850977258958052</v>
       </c>
       <c r="D12">
-        <v>1.043673821584395</v>
+        <v>1.010455922220999</v>
       </c>
       <c r="E12">
-        <v>1.044448092875635</v>
+        <v>1.003656542832359</v>
       </c>
       <c r="F12">
-        <v>1.053584723232797</v>
+        <v>1.011442461532156</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035283028058852</v>
+        <v>1.040714331692227</v>
       </c>
       <c r="J12">
-        <v>1.042774352404567</v>
+        <v>1.015546447015474</v>
       </c>
       <c r="K12">
-        <v>1.047257303352428</v>
+        <v>1.025385507919131</v>
       </c>
       <c r="L12">
-        <v>1.048028715184055</v>
+        <v>1.018714022948653</v>
       </c>
       <c r="M12">
-        <v>1.057131953726951</v>
+        <v>1.026353677039006</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036182168949806</v>
+        <v>0.9853788743848426</v>
       </c>
       <c r="D13">
-        <v>1.043714845025951</v>
+        <v>1.010666188127934</v>
       </c>
       <c r="E13">
-        <v>1.044494386594967</v>
+        <v>1.003885431389974</v>
       </c>
       <c r="F13">
-        <v>1.053633879341971</v>
+        <v>1.011685975682261</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035291856424111</v>
+        <v>1.040781035391068</v>
       </c>
       <c r="J13">
-        <v>1.042808771341458</v>
+        <v>1.015720243284751</v>
       </c>
       <c r="K13">
-        <v>1.047288616950105</v>
+        <v>1.025548496991062</v>
       </c>
       <c r="L13">
-        <v>1.048065288040607</v>
+        <v>1.018894784217638</v>
       </c>
       <c r="M13">
-        <v>1.057171476683828</v>
+        <v>1.026549369937545</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036355896069064</v>
+        <v>0.9862973934721752</v>
       </c>
       <c r="D14">
-        <v>1.043849270886602</v>
+        <v>1.011353285964054</v>
       </c>
       <c r="E14">
-        <v>1.044646098668355</v>
+        <v>1.004633479775262</v>
       </c>
       <c r="F14">
-        <v>1.053794969651256</v>
+        <v>1.01248179885931</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035320743173649</v>
+        <v>1.040998659428556</v>
       </c>
       <c r="J14">
-        <v>1.04292154676227</v>
+        <v>1.016288026707687</v>
       </c>
       <c r="K14">
-        <v>1.047391206494409</v>
+        <v>1.026080917984472</v>
       </c>
       <c r="L14">
-        <v>1.048185128423128</v>
+        <v>1.019485396195009</v>
       </c>
       <c r="M14">
-        <v>1.057300983053314</v>
+        <v>1.027188769407454</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036462948950304</v>
+        <v>0.9868612845146313</v>
       </c>
       <c r="D15">
-        <v>1.043932102351351</v>
+        <v>1.01177522035761</v>
       </c>
       <c r="E15">
-        <v>1.044739594331464</v>
+        <v>1.005092916859913</v>
       </c>
       <c r="F15">
-        <v>1.053894243097149</v>
+        <v>1.01297055978959</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03533851059465</v>
+        <v>1.041132032270502</v>
       </c>
       <c r="J15">
-        <v>1.042991030808273</v>
+        <v>1.01663658524954</v>
       </c>
       <c r="K15">
-        <v>1.04745440626269</v>
+        <v>1.026407724632771</v>
       </c>
       <c r="L15">
-        <v>1.048258971151657</v>
+        <v>1.01984802572913</v>
       </c>
       <c r="M15">
-        <v>1.057380781132962</v>
+        <v>1.027581354236723</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037086254252652</v>
+        <v>0.9901128912581505</v>
       </c>
       <c r="D16">
-        <v>1.04441432709647</v>
+        <v>1.014209939169056</v>
       </c>
       <c r="E16">
-        <v>1.045284096915101</v>
+        <v>1.0077451820787</v>
       </c>
       <c r="F16">
-        <v>1.05447236784021</v>
+        <v>1.015791826816735</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035441456178543</v>
+        <v>1.041897585414252</v>
       </c>
       <c r="J16">
-        <v>1.043395447993409</v>
+        <v>1.018646291293075</v>
       </c>
       <c r="K16">
-        <v>1.047822117541242</v>
+        <v>1.028291344039165</v>
       </c>
       <c r="L16">
-        <v>1.048688845112143</v>
+        <v>1.021939717838447</v>
       </c>
       <c r="M16">
-        <v>1.057845314939698</v>
+        <v>1.029845832901567</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037477422735617</v>
+        <v>0.9921263750579389</v>
       </c>
       <c r="D17">
-        <v>1.044716909627804</v>
+        <v>1.015718989676976</v>
       </c>
       <c r="E17">
-        <v>1.045625927591253</v>
+        <v>1.009390090853981</v>
       </c>
       <c r="F17">
-        <v>1.054835282568614</v>
+        <v>1.017541303025014</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035505618218172</v>
+        <v>1.042368495270113</v>
       </c>
       <c r="J17">
-        <v>1.043649118723253</v>
+        <v>1.019890524138831</v>
       </c>
       <c r="K17">
-        <v>1.04805265018713</v>
+        <v>1.029456909367383</v>
       </c>
       <c r="L17">
-        <v>1.048958561062506</v>
+        <v>1.023235456845444</v>
       </c>
       <c r="M17">
-        <v>1.058136769475464</v>
+        <v>1.031248604603941</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037705651344661</v>
+        <v>0.9932916403185396</v>
       </c>
       <c r="D18">
-        <v>1.044893434974386</v>
+        <v>1.016592801092208</v>
       </c>
       <c r="E18">
-        <v>1.045825411656418</v>
+        <v>1.010342946105064</v>
       </c>
       <c r="F18">
-        <v>1.055047062338043</v>
+        <v>1.018554643336715</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035542893857263</v>
+        <v>1.042639875761304</v>
       </c>
       <c r="J18">
-        <v>1.043797076879283</v>
+        <v>1.020610499097942</v>
       </c>
       <c r="K18">
-        <v>1.048187071372888</v>
+        <v>1.030131138547335</v>
       </c>
       <c r="L18">
-        <v>1.049115905789424</v>
+        <v>1.023985503566184</v>
       </c>
       <c r="M18">
-        <v>1.058306792970869</v>
+        <v>1.032060605205781</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037783482687455</v>
+        <v>0.9936874351731442</v>
       </c>
       <c r="D19">
-        <v>1.044953631296755</v>
+        <v>1.016889678809546</v>
       </c>
       <c r="E19">
-        <v>1.045893447495361</v>
+        <v>1.010666743393766</v>
       </c>
       <c r="F19">
-        <v>1.055119290308234</v>
+        <v>1.018898979577736</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035555578600735</v>
+        <v>1.042731856314308</v>
       </c>
       <c r="J19">
-        <v>1.043847526135636</v>
+        <v>1.020855027567078</v>
       </c>
       <c r="K19">
-        <v>1.048232897928522</v>
+        <v>1.030360091391177</v>
       </c>
       <c r="L19">
-        <v>1.049169560313229</v>
+        <v>1.024240290740839</v>
       </c>
       <c r="M19">
-        <v>1.058364770457327</v>
+        <v>1.032336437217231</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037435447160507</v>
+        <v>0.9919113011572259</v>
       </c>
       <c r="D20">
-        <v>1.044684441852002</v>
+        <v>1.015557747570393</v>
       </c>
       <c r="E20">
-        <v>1.045589242041043</v>
+        <v>1.009214293507738</v>
       </c>
       <c r="F20">
-        <v>1.054796335133186</v>
+        <v>1.0173543393401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035498749646175</v>
+        <v>1.042318313033866</v>
       </c>
       <c r="J20">
-        <v>1.043621902630111</v>
+        <v>1.019757629256823</v>
       </c>
       <c r="K20">
-        <v>1.048027920822896</v>
+        <v>1.029332440036733</v>
       </c>
       <c r="L20">
-        <v>1.048929620606764</v>
+        <v>1.023097032849431</v>
       </c>
       <c r="M20">
-        <v>1.058105496775853</v>
+        <v>1.031098746532738</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036304734871964</v>
+        <v>0.986027338822662</v>
       </c>
       <c r="D21">
-        <v>1.043809684307356</v>
+        <v>1.011151247323694</v>
       </c>
       <c r="E21">
-        <v>1.04460141889887</v>
+        <v>1.004413503435867</v>
       </c>
       <c r="F21">
-        <v>1.053747528320331</v>
+        <v>1.012247777396752</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035312243131987</v>
+        <v>1.040934723359149</v>
       </c>
       <c r="J21">
-        <v>1.042888337337843</v>
+        <v>1.01612109441532</v>
       </c>
       <c r="K21">
-        <v>1.047360998311253</v>
+        <v>1.025924391454913</v>
       </c>
       <c r="L21">
-        <v>1.048149837350428</v>
+        <v>1.01931174030702</v>
       </c>
       <c r="M21">
-        <v>1.057262845626181</v>
+        <v>1.027000768608509</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03559441620908</v>
+        <v>0.9822395065545</v>
       </c>
       <c r="D22">
-        <v>1.043260005274548</v>
+        <v>1.00831958471738</v>
       </c>
       <c r="E22">
-        <v>1.043981244565766</v>
+        <v>1.001331754415452</v>
       </c>
       <c r="F22">
-        <v>1.053088991096058</v>
+        <v>1.008968929130888</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035193640065215</v>
+        <v>1.040033845711114</v>
       </c>
       <c r="J22">
-        <v>1.042427088284076</v>
+        <v>1.013779513985121</v>
       </c>
       <c r="K22">
-        <v>1.046941282359052</v>
+        <v>1.023728011237717</v>
       </c>
       <c r="L22">
-        <v>1.047659779174776</v>
+        <v>1.016876875075707</v>
       </c>
       <c r="M22">
-        <v>1.056733251852372</v>
+        <v>1.024364779333487</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035970911998998</v>
+        <v>0.9842561752570986</v>
       </c>
       <c r="D23">
-        <v>1.043551370174906</v>
+        <v>1.009826674641626</v>
       </c>
       <c r="E23">
-        <v>1.044309924124005</v>
+        <v>1.002971645764944</v>
       </c>
       <c r="F23">
-        <v>1.053438009429338</v>
+        <v>1.010713780100372</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035256640560336</v>
+        <v>1.040514417895266</v>
       </c>
       <c r="J23">
-        <v>1.042671607454195</v>
+        <v>1.015026219594418</v>
       </c>
       <c r="K23">
-        <v>1.04716381887817</v>
+        <v>1.024897582920327</v>
       </c>
       <c r="L23">
-        <v>1.047919546879043</v>
+        <v>1.018173010286191</v>
       </c>
       <c r="M23">
-        <v>1.057013978851475</v>
+        <v>1.025767975030117</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037454413910138</v>
+        <v>0.9920085120597238</v>
       </c>
       <c r="D24">
-        <v>1.044699112537156</v>
+        <v>1.015630625654972</v>
       </c>
       <c r="E24">
-        <v>1.045605818353145</v>
+        <v>1.009293749092679</v>
       </c>
       <c r="F24">
-        <v>1.054813933500862</v>
+        <v>1.017438842077812</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035501853718606</v>
+        <v>1.042340998389996</v>
       </c>
       <c r="J24">
-        <v>1.043634200422551</v>
+        <v>1.019817696515754</v>
       </c>
       <c r="K24">
-        <v>1.048039095096028</v>
+        <v>1.029388699723097</v>
       </c>
       <c r="L24">
-        <v>1.048942697478974</v>
+        <v>1.023159598386969</v>
       </c>
       <c r="M24">
-        <v>1.058119627491718</v>
+        <v>1.031166480106726</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039178547463047</v>
+        <v>1.000647575203971</v>
       </c>
       <c r="D25">
-        <v>1.046032335727099</v>
+        <v>1.022116557031431</v>
       </c>
       <c r="E25">
-        <v>1.047113550503223</v>
+        <v>1.016373284353623</v>
       </c>
       <c r="F25">
-        <v>1.056414446708347</v>
+        <v>1.024966205677636</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035780563514513</v>
+        <v>1.044332008399615</v>
       </c>
       <c r="J25">
-        <v>1.044751088203617</v>
+        <v>1.025153165496637</v>
       </c>
       <c r="K25">
-        <v>1.049053051137499</v>
+        <v>1.034380976176078</v>
       </c>
       <c r="L25">
-        <v>1.050130943898067</v>
+        <v>1.028722634138443</v>
       </c>
       <c r="M25">
-        <v>1.059403569418626</v>
+        <v>1.037188932844998</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
